--- a/Batch 8/Red Bulk 442.xlsx
+++ b/Batch 8/Red Bulk 442.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftamb\Documents\GitHub\Palsfit\Batch 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9681726-66BC-4F22-8257-3D43E5696F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61567D4-2392-4CDE-95F2-F00E0B6A6BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B1D783F5-17AA-4934-97D6-37ACE32566A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1D783F5-17AA-4934-97D6-37ACE32566A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Bulk Lifetime</t>
-  </si>
-  <si>
-    <t>Defect Lifetime</t>
-  </si>
-  <si>
-    <t>Trapping Coefficient</t>
-  </si>
-  <si>
-    <t>Vacancy concentration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Bulk life</t>
   </si>
@@ -3694,46 +3681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87793098-EB0B-408C-A6F5-0F52F834EB3C}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155A6553-7559-4F22-B39F-ECD130D26314}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,40 +3705,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4419,25 +4371,25 @@
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="I34" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="M34" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I35" s="2">
         <f>H2</f>
@@ -4463,7 +4415,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="H36" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I36" s="2">
         <f>H3</f>
@@ -4489,7 +4441,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="H37" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I37" s="2">
         <f>H4</f>
@@ -4515,7 +4467,7 @@
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="H38" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2">
         <f>H6</f>
@@ -4541,7 +4493,7 @@
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="H39" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2">
         <f>H9</f>
@@ -4567,7 +4519,7 @@
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="H40" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2">
         <f>H12</f>
@@ -4593,7 +4545,7 @@
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="H41" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2">
         <f>H13</f>
@@ -4618,7 +4570,7 @@
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H43" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I43" s="2">
         <v>1.5E-3</v>

--- a/Batch 8/Red Bulk 442.xlsx
+++ b/Batch 8/Red Bulk 442.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftamb\Documents\GitHub\Palsfit\Batch 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61567D4-2392-4CDE-95F2-F00E0B6A6BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1758A69A-0C6D-439F-BBBC-54A6A70FA78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1D783F5-17AA-4934-97D6-37ACE32566A0}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>I2 (H&amp;C)</t>
   </si>
   <si>
-    <t>I2 (Kanda)</t>
-  </si>
-  <si>
     <t>10-90</t>
   </si>
   <si>
@@ -112,6 +109,31 @@
   <si>
     <t>20-80</t>
   </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Kanda)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +152,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,13 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +460,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I2 (Kanda)</c:v>
+                  <c:v>I2(Kanda)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -656,6 +686,7 @@
         <c:axId val="1055531599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -723,7 +754,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -811,62 +842,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reduced Bulk (ps)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1062,6 +1038,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Vacancy Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1124,6 +1155,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="-25000"/>
+                  <a:t>rb</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> [ps]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6625103906899419E-2"/>
+              <c:y val="0.42940589629465803"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3313,13 +3416,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
@@ -3685,7 +3788,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,8 +3831,8 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -4371,25 +4474,25 @@
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="I34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="2">
         <f>H2</f>
@@ -4415,7 +4518,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="H36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2">
         <f>H3</f>
@@ -4441,7 +4544,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="H37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2">
         <f>H4</f>
@@ -4467,7 +4570,7 @@
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="H38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="2">
         <f>H6</f>
@@ -4493,7 +4596,7 @@
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="H39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" s="2">
         <f>H9</f>
@@ -4519,7 +4622,7 @@
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="H40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2">
         <f>H12</f>
@@ -4545,7 +4648,7 @@
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="H41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2">
         <f>H13</f>
@@ -4570,7 +4673,7 @@
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H43" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="2">
         <v>1.5E-3</v>
